--- a/ebs_qshield_employee/data/Employment contracts.xlsx
+++ b/ebs_qshield_employee/data/Employment contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="774">
   <si>
     <t xml:space="preserve">Serial no</t>
   </si>
@@ -975,9 +975,6 @@
   </si>
   <si>
     <t xml:space="preserve">Baraka estate, Keyna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baraka estate, zone B</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
@@ -2655,13 +2652,13 @@
   </sheetPr>
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36"/>
@@ -5240,7 +5237,7 @@
       </c>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>35</v>
       </c>
@@ -5268,9 +5265,8 @@
       <c r="I31" s="4" t="n">
         <v>44287</v>
       </c>
-      <c r="J31" s="8" t="str">
-        <f aca="false">H31</f>
-        <v>India</v>
+      <c r="J31" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K31" s="10" t="str">
         <f aca="false">F31</f>
@@ -5328,7 +5324,7 @@
       </c>
       <c r="AB31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5356,9 +5352,8 @@
       <c r="I32" s="4" t="n">
         <v>44550</v>
       </c>
-      <c r="J32" s="8" t="str">
-        <f aca="false">H32</f>
-        <v>Lebanon</v>
+      <c r="J32" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K32" s="10" t="str">
         <f aca="false">F32</f>
@@ -5416,7 +5411,7 @@
       </c>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>41</v>
       </c>
@@ -5444,9 +5439,8 @@
       <c r="I33" s="4" t="n">
         <v>42030</v>
       </c>
-      <c r="J33" s="8" t="str">
-        <f aca="false">H33</f>
-        <v>India</v>
+      <c r="J33" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K33" s="10" t="str">
         <f aca="false">F33</f>
@@ -5504,7 +5498,7 @@
       </c>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>7</v>
       </c>
@@ -5532,9 +5526,8 @@
       <c r="I34" s="4" t="n">
         <v>44377</v>
       </c>
-      <c r="J34" s="8" t="str">
-        <f aca="false">H34</f>
-        <v>India</v>
+      <c r="J34" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K34" s="8" t="str">
         <f aca="false">F34</f>
@@ -5592,7 +5585,7 @@
       </c>
       <c r="AB34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>46</v>
       </c>
@@ -5620,9 +5613,8 @@
       <c r="I35" s="4" t="n">
         <v>44292</v>
       </c>
-      <c r="J35" s="8" t="str">
-        <f aca="false">H35</f>
-        <v>Pakistan</v>
+      <c r="J35" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K35" s="10" t="str">
         <f aca="false">F35</f>
@@ -5680,7 +5672,7 @@
       </c>
       <c r="AB35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>48</v>
       </c>
@@ -5708,9 +5700,8 @@
       <c r="I36" s="4" t="n">
         <v>44536</v>
       </c>
-      <c r="J36" s="8" t="str">
-        <f aca="false">H36</f>
-        <v>Norway</v>
+      <c r="J36" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="K36" s="8" t="str">
         <f aca="false">F36</f>
@@ -5768,7 +5759,7 @@
       </c>
       <c r="AB36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>1</v>
       </c>
@@ -5797,7 +5788,7 @@
         <v>44241</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K37" s="8" t="str">
         <f aca="false">F37</f>
@@ -5808,19 +5799,19 @@
         <v>33524045</v>
       </c>
       <c r="M37" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>29540401250</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>118</v>
@@ -5832,7 +5823,7 @@
         <v>37</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>3800</v>
@@ -5855,12 +5846,12 @@
       </c>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>274</v>
@@ -5875,7 +5866,7 @@
         <v>294</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>162</v>
@@ -5906,7 +5897,7 @@
         <v>28942201122</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R38" s="8" t="s">
         <v>36</v>
@@ -5918,7 +5909,7 @@
         <v>37</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>21000</v>
@@ -5941,12 +5932,12 @@
       </c>
       <c r="AB38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>12</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>274</v>
@@ -5961,7 +5952,7 @@
         <v>294</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>162</v>
@@ -5969,9 +5960,8 @@
       <c r="I39" s="4" t="n">
         <v>44283</v>
       </c>
-      <c r="J39" s="8" t="str">
-        <f aca="false">H39</f>
-        <v>Lebanon</v>
+      <c r="J39" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K39" s="8" t="str">
         <f aca="false">F39</f>
@@ -5994,7 +5984,7 @@
         <v>29142200679</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>36</v>
@@ -6006,7 +5996,7 @@
         <v>37</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>17000</v>
@@ -6029,18 +6019,18 @@
       </c>
       <c r="AB39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>50766166</v>
@@ -6049,7 +6039,7 @@
         <v>294</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>243</v>
@@ -6057,9 +6047,8 @@
       <c r="I40" s="4" t="n">
         <v>44409</v>
       </c>
-      <c r="J40" s="8" t="str">
-        <f aca="false">H40</f>
-        <v>Tunis, Tunis</v>
+      <c r="J40" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="K40" s="8" t="str">
         <f aca="false">F40</f>
@@ -6082,7 +6071,7 @@
         <v>28478800984</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R40" s="8" t="s">
         <v>118</v>
@@ -6094,7 +6083,7 @@
         <v>37</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V40" s="6" t="n">
         <v>32000</v>
@@ -6117,12 +6106,12 @@
       </c>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>274</v>
@@ -6134,10 +6123,10 @@
         <v>55027878</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>88</v>
@@ -6145,9 +6134,8 @@
       <c r="I41" s="4" t="n">
         <v>44416</v>
       </c>
-      <c r="J41" s="8" t="str">
-        <f aca="false">H41</f>
-        <v>Jordan</v>
+      <c r="J41" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K41" s="10" t="str">
         <f aca="false">F41</f>
@@ -6170,7 +6158,7 @@
         <v>26940001232</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>36</v>
@@ -6182,7 +6170,7 @@
         <v>64</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>34000</v>
@@ -6205,12 +6193,12 @@
       </c>
       <c r="AB41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>274</v>
@@ -6225,7 +6213,7 @@
         <v>294</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>162</v>
@@ -6233,9 +6221,8 @@
       <c r="I42" s="4" t="n">
         <v>44346</v>
       </c>
-      <c r="J42" s="8" t="str">
-        <f aca="false">H42</f>
-        <v>Lebanon</v>
+      <c r="J42" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K42" s="8" t="str">
         <f aca="false">F42</f>
@@ -6258,7 +6245,7 @@
         <v>29742200325</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R42" s="8" t="s">
         <v>36</v>
@@ -6270,7 +6257,7 @@
         <v>37</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V42" s="6" t="n">
         <v>17000</v>
@@ -6293,37 +6280,36 @@
       </c>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>55919386</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>283</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>44358</v>
       </c>
-      <c r="J43" s="8" t="str">
-        <f aca="false">H43</f>
-        <v>United Kingdom</v>
+      <c r="J43" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="K43" s="8" t="str">
         <f aca="false">F43</f>
@@ -6334,13 +6320,13 @@
         <v>55919386</v>
       </c>
       <c r="M43" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="O43" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>27782601157</v>
@@ -6358,7 +6344,7 @@
         <v>64</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V43" s="6" t="n">
         <v>45000</v>
@@ -6381,27 +6367,27 @@
       </c>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>66022141</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>86</v>
@@ -6409,9 +6395,8 @@
       <c r="I44" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="J44" s="8" t="str">
-        <f aca="false">H44</f>
-        <v>Amman, Jordan</v>
+      <c r="J44" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="K44" s="8" t="str">
         <f aca="false">F44</f>
@@ -6434,7 +6419,7 @@
         <v>28440000987</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R44" s="8" t="s">
         <v>36</v>
@@ -6446,7 +6431,7 @@
         <v>64</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V44" s="6" t="n">
         <v>58080</v>
@@ -6469,37 +6454,36 @@
       </c>
       <c r="AB44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>82</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>66194147</v>
       </c>
       <c r="F45" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>44293</v>
       </c>
-      <c r="J45" s="8" t="str">
-        <f aca="false">H45</f>
-        <v>indonesia</v>
+      <c r="J45" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="K45" s="10" t="str">
         <f aca="false">F45</f>
@@ -6514,16 +6498,16 @@
         <v>indonesia</v>
       </c>
       <c r="N45" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="P45" s="7" t="n">
         <v>28536007863</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R45" s="8" t="s">
         <v>36</v>
@@ -6535,7 +6519,7 @@
         <v>64</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V45" s="6" t="n">
         <v>33000</v>
@@ -6558,18 +6542,18 @@
       </c>
       <c r="AB45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>66300572</v>
@@ -6581,14 +6565,13 @@
         <v>283</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>44505</v>
       </c>
-      <c r="J46" s="8" t="str">
-        <f aca="false">H46</f>
-        <v>Sweden</v>
+      <c r="J46" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="K46" s="8" t="str">
         <f aca="false">F46</f>
@@ -6599,13 +6582,13 @@
         <v>66300572</v>
       </c>
       <c r="M46" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="O46" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>26475200041</v>
@@ -6623,7 +6606,7 @@
         <v>64</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>30475</v>
@@ -6646,12 +6629,12 @@
       </c>
       <c r="AB46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>274</v>
@@ -6663,10 +6646,10 @@
         <v>66827329</v>
       </c>
       <c r="F47" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>301</v>
@@ -6674,9 +6657,8 @@
       <c r="I47" s="4" t="n">
         <v>44266</v>
       </c>
-      <c r="J47" s="8" t="str">
-        <f aca="false">H47</f>
-        <v>Pakistan</v>
+      <c r="J47" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K47" s="10" t="str">
         <f aca="false">F47</f>
@@ -6699,7 +6681,7 @@
         <v>29158606673</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R47" s="8" t="s">
         <v>36</v>
@@ -6711,7 +6693,7 @@
         <v>305</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V47" s="6" t="n">
         <v>16500</v>
@@ -6734,12 +6716,12 @@
       </c>
       <c r="AB47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>37</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>274</v>
@@ -6751,10 +6733,10 @@
         <v>66845010</v>
       </c>
       <c r="F48" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>43</v>
@@ -6762,9 +6744,8 @@
       <c r="I48" s="4" t="n">
         <v>44616</v>
       </c>
-      <c r="J48" s="8" t="str">
-        <f aca="false">H48</f>
-        <v>Syria</v>
+      <c r="J48" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="K48" s="10" t="str">
         <f aca="false">F48</f>
@@ -6787,7 +6768,7 @@
         <v>29676000376</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R48" s="8" t="s">
         <v>36</v>
@@ -6799,7 +6780,7 @@
         <v>64</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V48" s="6" t="n">
         <v>25003.18</v>
@@ -6815,31 +6796,31 @@
         <v>0</v>
       </c>
       <c r="Z48" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA48" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>70029582</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>283</v>
@@ -6850,9 +6831,8 @@
       <c r="I49" s="4" t="n">
         <v>44507</v>
       </c>
-      <c r="J49" s="8" t="str">
-        <f aca="false">H49</f>
-        <v>india</v>
+      <c r="J49" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K49" s="8" t="str">
         <f aca="false">F49</f>
@@ -6876,7 +6856,7 @@
         <v>28935654483</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>36</v>
@@ -6885,10 +6865,10 @@
         <v>32599</v>
       </c>
       <c r="T49" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="U49" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="V49" s="6" t="n">
         <v>22000</v>
@@ -6911,18 +6891,18 @@
       </c>
       <c r="AB49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>73</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E50" s="7" t="n">
         <v>70237763</v>
@@ -6939,9 +6919,8 @@
       <c r="I50" s="4" t="n">
         <v>44348</v>
       </c>
-      <c r="J50" s="8" t="str">
-        <f aca="false">H50</f>
-        <v>Jordan</v>
+      <c r="J50" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K50" s="8" t="str">
         <f aca="false">F50</f>
@@ -6964,7 +6943,7 @@
         <v>28840001972</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>36</v>
@@ -6976,7 +6955,7 @@
         <v>64</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V50" s="6" t="n">
         <v>28000</v>
@@ -6999,37 +6978,36 @@
       </c>
       <c r="AB50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>76</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E51" s="7" t="n">
         <v>70386644</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>40188</v>
       </c>
-      <c r="J51" s="8" t="str">
-        <f aca="false">H51</f>
-        <v>egypt</v>
+      <c r="J51" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="K51" s="8" t="str">
         <f aca="false">F51</f>
@@ -7052,7 +7030,7 @@
         <v>27881806855</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R51" s="8" t="s">
         <v>36</v>
@@ -7064,7 +7042,7 @@
         <v>64</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V51" s="6" t="n">
         <v>16750</v>
@@ -7087,18 +7065,18 @@
       </c>
       <c r="AB51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>81</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E52" s="7" t="n">
         <v>70420980</v>
@@ -7107,7 +7085,7 @@
         <v>294</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>152</v>
@@ -7115,9 +7093,8 @@
       <c r="I52" s="4" t="n">
         <v>43864</v>
       </c>
-      <c r="J52" s="8" t="str">
-        <f aca="false">H52</f>
-        <v>india</v>
+      <c r="J52" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K52" s="8" t="str">
         <f aca="false">F52</f>
@@ -7141,7 +7118,7 @@
         <v>28835682317</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>36</v>
@@ -7153,7 +7130,7 @@
         <v>64</v>
       </c>
       <c r="U52" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V52" s="6" t="n">
         <v>25000</v>
@@ -7176,12 +7153,12 @@
       </c>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>274</v>
@@ -7193,10 +7170,10 @@
         <v>74047457</v>
       </c>
       <c r="F53" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>301</v>
@@ -7204,9 +7181,8 @@
       <c r="I53" s="4" t="n">
         <v>43214</v>
       </c>
-      <c r="J53" s="8" t="str">
-        <f aca="false">H53</f>
-        <v>Pakistan</v>
+      <c r="J53" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K53" s="10" t="str">
         <f aca="false">F53</f>
@@ -7220,7 +7196,7 @@
         <v>301</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>303</v>
@@ -7229,7 +7205,7 @@
         <v>28758606546</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>36</v>
@@ -7241,7 +7217,7 @@
         <v>305</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V53" s="6" t="n">
         <v>8400</v>
@@ -7264,12 +7240,12 @@
       </c>
       <c r="AB53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>44</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>274</v>
@@ -7281,10 +7257,10 @@
         <v>74081756</v>
       </c>
       <c r="F54" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>301</v>
@@ -7292,9 +7268,8 @@
       <c r="I54" s="4" t="n">
         <v>44252</v>
       </c>
-      <c r="J54" s="8" t="str">
-        <f aca="false">H54</f>
-        <v>Pakistan</v>
+      <c r="J54" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K54" s="10" t="str">
         <f aca="false">F54</f>
@@ -7317,7 +7292,7 @@
         <v>28958607427</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>36</v>
@@ -7329,7 +7304,7 @@
         <v>305</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V54" s="6" t="n">
         <v>16500</v>
@@ -7352,27 +7327,27 @@
       </c>
       <c r="AB54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>84</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E55" s="7" t="n">
         <v>74701245</v>
       </c>
       <c r="F55" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>301</v>
@@ -7380,9 +7355,8 @@
       <c r="I55" s="4" t="n">
         <v>44355</v>
       </c>
-      <c r="J55" s="8" t="str">
-        <f aca="false">H55</f>
-        <v>Pakistan</v>
+      <c r="J55" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K55" s="10" t="str">
         <f aca="false">F55</f>
@@ -7406,7 +7380,7 @@
         <v>28158606025</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R55" s="8" t="s">
         <v>36</v>
@@ -7415,10 +7389,10 @@
         <v>29668</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V55" s="6" t="n">
         <v>20000</v>
@@ -7441,27 +7415,27 @@
       </c>
       <c r="AB55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>83</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E56" s="7" t="n">
         <v>74733817</v>
       </c>
       <c r="F56" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>301</v>
@@ -7469,9 +7443,8 @@
       <c r="I56" s="4" t="n">
         <v>44465</v>
       </c>
-      <c r="J56" s="8" t="str">
-        <f aca="false">H56</f>
-        <v>Pakistan</v>
+      <c r="J56" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K56" s="10" t="str">
         <f aca="false">F56</f>
@@ -7495,7 +7468,7 @@
         <v>28758608316</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>36</v>
@@ -7507,7 +7480,7 @@
         <v>64</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V56" s="6" t="n">
         <v>18000</v>
@@ -7530,27 +7503,27 @@
       </c>
       <c r="AB56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E57" s="7" t="n">
         <v>77439072</v>
       </c>
       <c r="F57" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>301</v>
@@ -7558,9 +7531,8 @@
       <c r="I57" s="4" t="n">
         <v>44465</v>
       </c>
-      <c r="J57" s="8" t="str">
-        <f aca="false">H57</f>
-        <v>Pakistan</v>
+      <c r="J57" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K57" s="10" t="str">
         <f aca="false">F57</f>
@@ -7584,7 +7556,7 @@
         <v>29558605970</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R57" s="8" t="s">
         <v>36</v>
@@ -7593,10 +7565,10 @@
         <v>34880</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V57" s="6" t="n">
         <v>14500</v>
@@ -7619,18 +7591,18 @@
       </c>
       <c r="AB57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>30</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E58" s="7" t="n">
         <v>99999999</v>
@@ -7647,9 +7619,8 @@
       <c r="I58" s="4" t="n">
         <v>43880</v>
       </c>
-      <c r="J58" s="8" t="str">
-        <f aca="false">H58</f>
-        <v>Syria</v>
+      <c r="J58" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="K58" s="8" t="str">
         <f aca="false">F58</f>
@@ -7672,7 +7643,7 @@
         <v>27476000640</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>36</v>
@@ -7684,7 +7655,7 @@
         <v>64</v>
       </c>
       <c r="U58" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V58" s="6" t="n">
         <v>12000</v>
@@ -7700,25 +7671,25 @@
         <v>0</v>
       </c>
       <c r="Z58" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA58" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AB58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>33</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E59" s="7" t="n">
         <v>99999999</v>
@@ -7727,7 +7698,7 @@
         <v>294</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>88</v>
@@ -7735,9 +7706,8 @@
       <c r="I59" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="J59" s="8" t="str">
-        <f aca="false">H59</f>
-        <v>Jordan</v>
+      <c r="J59" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="K59" s="8" t="str">
         <f aca="false">F59</f>
@@ -7760,7 +7730,7 @@
         <v>27140000946</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R59" s="8" t="s">
         <v>36</v>
@@ -7772,7 +7742,7 @@
         <v>64</v>
       </c>
       <c r="U59" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V59" s="6" t="n">
         <v>2000</v>
@@ -7795,18 +7765,18 @@
       </c>
       <c r="AB59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>34</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E60" s="7" t="n">
         <v>99999999</v>
@@ -7818,14 +7788,13 @@
         <v>295</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>44501</v>
       </c>
-      <c r="J60" s="10" t="str">
-        <f aca="false">H60</f>
-        <v>State of Palestine</v>
+      <c r="J60" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="K60" s="8" t="str">
         <f aca="false">F60</f>
@@ -7836,19 +7805,19 @@
         <v>99999999</v>
       </c>
       <c r="M60" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="N60" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="N60" s="10" t="s">
+      <c r="O60" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>23840000065</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R60" s="8" t="s">
         <v>36</v>
@@ -7860,7 +7829,7 @@
         <v>64</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V60" s="6" t="n">
         <v>0</v>
@@ -7876,25 +7845,25 @@
         <v>0</v>
       </c>
       <c r="Z60" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA60" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AB60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>74</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>99999999</v>
@@ -7911,9 +7880,8 @@
       <c r="I61" s="4" t="n">
         <v>44348</v>
       </c>
-      <c r="J61" s="8" t="str">
-        <f aca="false">H61</f>
-        <v>India</v>
+      <c r="J61" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K61" s="8" t="str">
         <f aca="false">F61</f>
@@ -7936,7 +7904,7 @@
         <v>28635661840</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>36</v>
@@ -7948,7 +7916,7 @@
         <v>64</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V61" s="6" t="n">
         <v>28744</v>
@@ -7971,27 +7939,27 @@
       </c>
       <c r="AB61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>85</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E62" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="F62" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>301</v>
@@ -7999,9 +7967,8 @@
       <c r="I62" s="4" t="n">
         <v>44355</v>
       </c>
-      <c r="J62" s="8" t="str">
-        <f aca="false">H62</f>
-        <v>Pakistan</v>
+      <c r="J62" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K62" s="10" t="str">
         <f aca="false">F62</f>
@@ -8025,7 +7992,7 @@
         <v>28758608312</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>36</v>
@@ -8034,10 +8001,10 @@
         <v>31952</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V62" s="6" t="n">
         <v>19000</v>
@@ -8060,27 +8027,27 @@
       </c>
       <c r="AB62" s="9"/>
     </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>94</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>78</v>
@@ -8088,9 +8055,8 @@
       <c r="I63" s="4" t="n">
         <v>44355</v>
       </c>
-      <c r="J63" s="8" t="str">
-        <f aca="false">H63</f>
-        <v>India</v>
+      <c r="J63" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K63" s="10" t="str">
         <f aca="false">F63</f>
@@ -8114,7 +8080,7 @@
         <v>28635679687</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R63" s="8" t="s">
         <v>36</v>
@@ -8123,10 +8089,10 @@
         <v>31422</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V63" s="6" t="n">
         <v>19000</v>
@@ -8149,27 +8115,27 @@
       </c>
       <c r="AB63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>95</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>152</v>
@@ -8177,9 +8143,8 @@
       <c r="I64" s="4" t="n">
         <v>44601</v>
       </c>
-      <c r="J64" s="8" t="str">
-        <f aca="false">H64</f>
-        <v>india</v>
+      <c r="J64" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K64" s="10" t="str">
         <f aca="false">F64</f>
@@ -8203,7 +8168,7 @@
         <v>28335673273</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>36</v>
@@ -8212,10 +8177,10 @@
         <v>30581</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V64" s="6" t="n">
         <v>19000</v>
@@ -8238,27 +8203,27 @@
       </c>
       <c r="AB64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>96</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="F65" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>152</v>
@@ -8266,9 +8231,8 @@
       <c r="I65" s="4" t="n">
         <v>44475</v>
       </c>
-      <c r="J65" s="8" t="str">
-        <f aca="false">H65</f>
-        <v>india</v>
+      <c r="J65" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K65" s="10" t="str">
         <f aca="false">F65</f>
@@ -8292,7 +8256,7 @@
         <v>28535680297</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>36</v>
@@ -8301,10 +8265,10 @@
         <v>31395</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="V65" s="6" t="n">
         <v>20000</v>
@@ -8327,27 +8291,27 @@
       </c>
       <c r="AB65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>97</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E66" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>152</v>
@@ -8355,9 +8319,8 @@
       <c r="I66" s="4" t="n">
         <v>44433</v>
       </c>
-      <c r="J66" s="8" t="str">
-        <f aca="false">H66</f>
-        <v>india</v>
+      <c r="J66" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K66" s="10" t="str">
         <f aca="false">F66</f>
@@ -8381,7 +8344,7 @@
         <v>28635679819</v>
       </c>
       <c r="Q66" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>36</v>
@@ -8390,10 +8353,10 @@
         <v>31652</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V66" s="6" t="n">
         <v>20000</v>
@@ -8416,12 +8379,12 @@
       </c>
       <c r="AB66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>274</v>
@@ -8433,10 +8396,10 @@
         <v>96597422933</v>
       </c>
       <c r="F67" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>78</v>
@@ -8444,9 +8407,8 @@
       <c r="I67" s="4" t="n">
         <v>44660</v>
       </c>
-      <c r="J67" s="8" t="str">
-        <f aca="false">H67</f>
-        <v>India</v>
+      <c r="J67" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K67" s="8" t="str">
         <f aca="false">F67</f>
@@ -8469,7 +8431,7 @@
         <v>28035666304</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R67" s="8" t="s">
         <v>36</v>
@@ -8481,7 +8443,7 @@
         <v>64</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V67" s="6" t="n">
         <v>0</v>
@@ -8497,34 +8459,34 @@
         <v>0</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA67" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AB67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="G68" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>78</v>
@@ -8532,9 +8494,8 @@
       <c r="I68" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J68" s="8" t="str">
-        <f aca="false">H68</f>
-        <v>India</v>
+      <c r="J68" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K68" s="8" t="str">
         <f aca="false">F68</f>
@@ -8557,7 +8518,7 @@
         <v>29735621566</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R68" s="8" t="s">
         <v>36</v>
@@ -8569,7 +8530,7 @@
         <v>64</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="V68" s="6" t="n">
         <v>2000</v>
@@ -8592,24 +8553,24 @@
       </c>
       <c r="AB68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>55</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>277</v>
@@ -8620,9 +8581,8 @@
       <c r="I69" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J69" s="8" t="str">
-        <f aca="false">H69</f>
-        <v>India</v>
+      <c r="J69" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K69" s="10" t="str">
         <f aca="false">F69</f>
@@ -8645,7 +8605,7 @@
         <v>28935656274</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>36</v>
@@ -8657,7 +8617,7 @@
         <v>64</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V69" s="6" t="n">
         <v>3900</v>
@@ -8680,27 +8640,27 @@
       </c>
       <c r="AB69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>57</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F70" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>78</v>
@@ -8708,9 +8668,8 @@
       <c r="I70" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J70" s="8" t="str">
-        <f aca="false">H70</f>
-        <v>India</v>
+      <c r="J70" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K70" s="8" t="str">
         <f aca="false">F70</f>
@@ -8733,7 +8692,7 @@
         <v>28735676417</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>36</v>
@@ -8745,7 +8704,7 @@
         <v>305</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V70" s="6" t="n">
         <v>2150</v>
@@ -8768,27 +8727,27 @@
       </c>
       <c r="AB70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F71" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>78</v>
@@ -8796,9 +8755,8 @@
       <c r="I71" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J71" s="8" t="str">
-        <f aca="false">H71</f>
-        <v>India</v>
+      <c r="J71" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K71" s="8" t="str">
         <f aca="false">F71</f>
@@ -8821,7 +8779,7 @@
         <v>28335673539</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>36</v>
@@ -8833,7 +8791,7 @@
         <v>64</v>
       </c>
       <c r="U71" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V71" s="6" t="n">
         <v>1950</v>
@@ -8856,24 +8814,24 @@
       </c>
       <c r="AB71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>51</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>283</v>
@@ -8884,9 +8842,8 @@
       <c r="I72" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J72" s="8" t="str">
-        <f aca="false">H72</f>
-        <v>India</v>
+      <c r="J72" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K72" s="8" t="str">
         <f aca="false">F72</f>
@@ -8909,7 +8866,7 @@
         <v>28535680549</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R72" s="8" t="s">
         <v>36</v>
@@ -8921,7 +8878,7 @@
         <v>64</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V72" s="6" t="n">
         <v>1950</v>
@@ -8937,31 +8894,31 @@
         <v>0</v>
       </c>
       <c r="Z72" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA72" s="9" t="n">
         <v>30</v>
       </c>
       <c r="AB72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>50</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>283</v>
@@ -8972,9 +8929,8 @@
       <c r="I73" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J73" s="8" t="str">
-        <f aca="false">H73</f>
-        <v>india</v>
+      <c r="J73" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K73" s="10" t="str">
         <f aca="false">F73</f>
@@ -8997,7 +8953,7 @@
         <v>28435677394</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R73" s="8" t="s">
         <v>36</v>
@@ -9009,7 +8965,7 @@
         <v>64</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V73" s="6" t="n">
         <v>2150</v>
@@ -9032,12 +8988,12 @@
       </c>
       <c r="AB73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>38</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>274</v>
@@ -9046,13 +9002,13 @@
         <v>275</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="G74" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>301</v>
@@ -9060,9 +9016,8 @@
       <c r="I74" s="4" t="n">
         <v>44640</v>
       </c>
-      <c r="J74" s="8" t="str">
-        <f aca="false">H74</f>
-        <v>Pakistan</v>
+      <c r="J74" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K74" s="8" t="str">
         <f aca="false">F74</f>
@@ -9085,7 +9040,7 @@
         <v>28758609081</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>36</v>
@@ -9097,7 +9052,7 @@
         <v>64</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="V74" s="6" t="n">
         <v>30000.91</v>
@@ -9120,27 +9075,27 @@
       </c>
       <c r="AB74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>508</v>
-      </c>
       <c r="G75" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>152</v>
@@ -9148,9 +9103,8 @@
       <c r="I75" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J75" s="8" t="str">
-        <f aca="false">H75</f>
-        <v>india</v>
+      <c r="J75" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K75" s="10" t="str">
         <f aca="false">F75</f>
@@ -9173,7 +9127,7 @@
         <v>29135647106</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R75" s="8" t="s">
         <v>36</v>
@@ -9185,7 +9139,7 @@
         <v>37</v>
       </c>
       <c r="U75" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V75" s="6" t="n">
         <v>3900</v>
@@ -9208,12 +9162,12 @@
       </c>
       <c r="AB75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>274</v>
@@ -9222,13 +9176,13 @@
         <v>281</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>513</v>
-      </c>
       <c r="G76" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>162</v>
@@ -9236,9 +9190,8 @@
       <c r="I76" s="4" t="n">
         <v>44279</v>
       </c>
-      <c r="J76" s="8" t="str">
-        <f aca="false">H76</f>
-        <v>Lebanon</v>
+      <c r="J76" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K76" s="10" t="str">
         <f aca="false">F76</f>
@@ -9261,7 +9214,7 @@
         <v>27742201317</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R76" s="8" t="s">
         <v>36</v>
@@ -9273,7 +9226,7 @@
         <v>64</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V76" s="6" t="n">
         <v>34400</v>
@@ -9296,37 +9249,36 @@
       </c>
       <c r="AB76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>59</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="G77" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>519</v>
       </c>
       <c r="I77" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J77" s="10" t="str">
-        <f aca="false">H77</f>
-        <v>Indonesia</v>
+      <c r="J77" s="10" t="s">
+        <v>518</v>
       </c>
       <c r="K77" s="10" t="str">
         <f aca="false">F77</f>
@@ -9349,7 +9301,7 @@
         <v>29636000532</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R77" s="8" t="s">
         <v>36</v>
@@ -9361,7 +9313,7 @@
         <v>37</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V77" s="6" t="n">
         <v>5000</v>
@@ -9384,27 +9336,27 @@
       </c>
       <c r="AB77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>294</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>78</v>
@@ -9412,9 +9364,8 @@
       <c r="I78" s="4" t="n">
         <v>42435</v>
       </c>
-      <c r="J78" s="8" t="str">
-        <f aca="false">H78</f>
-        <v>India</v>
+      <c r="J78" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K78" s="8" t="str">
         <f aca="false">F78</f>
@@ -9437,7 +9388,7 @@
         <v>27335627339</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R78" s="8" t="s">
         <v>36</v>
@@ -9449,7 +9400,7 @@
         <v>64</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V78" s="6" t="n">
         <v>5500</v>
@@ -9472,37 +9423,36 @@
       </c>
       <c r="AB78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>32</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>283</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I79" s="4" t="n">
         <v>44260</v>
       </c>
-      <c r="J79" s="8" t="str">
-        <f aca="false">H79</f>
-        <v>United Kingdom</v>
+      <c r="J79" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="K79" s="10" t="str">
         <f aca="false">F79</f>
@@ -9513,13 +9463,13 @@
         <v>3380 0087</v>
       </c>
       <c r="M79" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="N79" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N79" s="8" t="s">
+      <c r="O79" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="P79" s="7" t="n">
         <v>29176000574</v>
@@ -9537,7 +9487,7 @@
         <v>37</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V79" s="6" t="n">
         <v>20000</v>
@@ -9560,24 +9510,24 @@
       </c>
       <c r="AB79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>49</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>283</v>
@@ -9588,9 +9538,8 @@
       <c r="I80" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J80" s="8" t="str">
-        <f aca="false">H80</f>
-        <v>India</v>
+      <c r="J80" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K80" s="10" t="str">
         <f aca="false">F80</f>
@@ -9613,7 +9562,7 @@
         <v>29835606540</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="R80" s="8" t="s">
         <v>36</v>
@@ -9625,7 +9574,7 @@
         <v>64</v>
       </c>
       <c r="U80" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V80" s="6" t="n">
         <v>2200</v>
@@ -9648,27 +9597,27 @@
       </c>
       <c r="AB80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F81" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>78</v>
@@ -9676,9 +9625,8 @@
       <c r="I81" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J81" s="8" t="str">
-        <f aca="false">H81</f>
-        <v>India</v>
+      <c r="J81" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K81" s="8" t="str">
         <f aca="false">F81</f>
@@ -9701,7 +9649,7 @@
         <v>29235647007</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R81" s="8" t="s">
         <v>36</v>
@@ -9713,7 +9661,7 @@
         <v>64</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V81" s="6" t="n">
         <v>2150</v>
@@ -9736,12 +9684,12 @@
       </c>
       <c r="AB81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>39</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>274</v>
@@ -9750,7 +9698,7 @@
         <v>275</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>294</v>
@@ -9764,9 +9712,8 @@
       <c r="I82" s="4" t="n">
         <v>44657</v>
       </c>
-      <c r="J82" s="8" t="str">
-        <f aca="false">H82</f>
-        <v>India</v>
+      <c r="J82" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K82" s="8" t="str">
         <f aca="false">F82</f>
@@ -9789,7 +9736,7 @@
         <v>29435625135</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R82" s="8" t="s">
         <v>118</v>
@@ -9801,7 +9748,7 @@
         <v>37</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V82" s="6" t="n">
         <v>21912.82</v>
@@ -9824,12 +9771,12 @@
       </c>
       <c r="AB82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>274</v>
@@ -9838,13 +9785,13 @@
         <v>281</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>545</v>
-      </c>
       <c r="G83" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>162</v>
@@ -9852,9 +9799,8 @@
       <c r="I83" s="4" t="n">
         <v>44564</v>
       </c>
-      <c r="J83" s="8" t="str">
-        <f aca="false">H83</f>
-        <v>Lebanon</v>
+      <c r="J83" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="K83" s="10" t="str">
         <f aca="false">F83</f>
@@ -9877,7 +9823,7 @@
         <v>29642200534</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R83" s="8" t="s">
         <v>118</v>
@@ -9889,7 +9835,7 @@
         <v>37</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V83" s="6" t="n">
         <v>12000</v>
@@ -9912,27 +9858,27 @@
       </c>
       <c r="AB83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="G84" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>551</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>86</v>
@@ -9940,9 +9886,8 @@
       <c r="I84" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="J84" s="8" t="str">
-        <f aca="false">H84</f>
-        <v>Amman, Jordan</v>
+      <c r="J84" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="K84" s="10" t="str">
         <f aca="false">F84</f>
@@ -9953,7 +9898,7 @@
         <v>5543 4191</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>89</v>
@@ -9965,7 +9910,7 @@
         <v>28740000474</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R84" s="8" t="s">
         <v>36</v>
@@ -9977,7 +9922,7 @@
         <v>64</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="V84" s="6" t="n">
         <v>46583.79</v>
@@ -10000,27 +9945,27 @@
       </c>
       <c r="AB84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>31</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>294</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>202</v>
@@ -10028,9 +9973,8 @@
       <c r="I85" s="4" t="n">
         <v>44080</v>
       </c>
-      <c r="J85" s="8" t="str">
-        <f aca="false">H85</f>
-        <v>United States of America</v>
+      <c r="J85" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="K85" s="8" t="str">
         <f aca="false">F85</f>
@@ -10065,7 +10009,7 @@
         <v>64</v>
       </c>
       <c r="U85" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V85" s="6" t="n">
         <v>15000</v>
@@ -10088,12 +10032,12 @@
       </c>
       <c r="AB85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>43</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>274</v>
@@ -10102,10 +10046,10 @@
         <v>287</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>277</v>
@@ -10116,9 +10060,8 @@
       <c r="I86" s="4" t="n">
         <v>43103</v>
       </c>
-      <c r="J86" s="8" t="str">
-        <f aca="false">H86</f>
-        <v>India</v>
+      <c r="J86" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K86" s="10" t="str">
         <f aca="false">F86</f>
@@ -10141,7 +10084,7 @@
         <v>28635661240</v>
       </c>
       <c r="Q86" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>36</v>
@@ -10153,7 +10096,7 @@
         <v>305</v>
       </c>
       <c r="U86" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V86" s="6" t="n">
         <v>16500</v>
@@ -10176,12 +10119,12 @@
       </c>
       <c r="AB86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>274</v>
@@ -10190,10 +10133,10 @@
         <v>293</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>564</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>565</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>277</v>
@@ -10204,9 +10147,8 @@
       <c r="I87" s="4" t="n">
         <v>44660</v>
       </c>
-      <c r="J87" s="8" t="str">
-        <f aca="false">H87</f>
-        <v>Beirut, Lebanon</v>
+      <c r="J87" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="K87" s="10" t="str">
         <f aca="false">F87</f>
@@ -10229,7 +10171,7 @@
         <v>28342202145</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R87" s="8" t="s">
         <v>36</v>
@@ -10241,7 +10183,7 @@
         <v>64</v>
       </c>
       <c r="U87" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V87" s="6" t="n">
         <v>28000</v>
@@ -10264,12 +10206,12 @@
       </c>
       <c r="AB87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>274</v>
@@ -10278,13 +10220,13 @@
         <v>293</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>294</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>243</v>
@@ -10292,9 +10234,8 @@
       <c r="I88" s="4" t="n">
         <v>44574</v>
       </c>
-      <c r="J88" s="8" t="str">
-        <f aca="false">H88</f>
-        <v>Tunis, Tunis</v>
+      <c r="J88" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="K88" s="8" t="str">
         <f aca="false">F88</f>
@@ -10317,7 +10258,7 @@
         <v>28678801614</v>
       </c>
       <c r="Q88" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R88" s="8" t="s">
         <v>36</v>
@@ -10329,7 +10270,7 @@
         <v>64</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="V88" s="6" t="n">
         <v>20000</v>
@@ -10352,27 +10293,27 @@
       </c>
       <c r="AB88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>56</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>78</v>
@@ -10380,9 +10321,8 @@
       <c r="I89" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J89" s="8" t="str">
-        <f aca="false">H89</f>
-        <v>India</v>
+      <c r="J89" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K89" s="8" t="str">
         <f aca="false">F89</f>
@@ -10405,7 +10345,7 @@
         <v>28935656348</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R89" s="8" t="s">
         <v>36</v>
@@ -10417,7 +10357,7 @@
         <v>305</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="V89" s="6" t="n">
         <v>1950</v>
@@ -10440,27 +10380,27 @@
       </c>
       <c r="AB89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>75</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>294</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>78</v>
@@ -10468,9 +10408,8 @@
       <c r="I90" s="4" t="n">
         <v>44612</v>
       </c>
-      <c r="J90" s="8" t="str">
-        <f aca="false">H90</f>
-        <v>India</v>
+      <c r="J90" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K90" s="8" t="str">
         <f aca="false">F90</f>
@@ -10493,7 +10432,7 @@
         <v>29435613754</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="R90" s="8" t="s">
         <v>36</v>
@@ -10505,7 +10444,7 @@
         <v>64</v>
       </c>
       <c r="U90" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V90" s="6" t="n">
         <v>18000</v>
@@ -10528,37 +10467,36 @@
       </c>
       <c r="AB90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>78</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="G91" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="H91" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I91" s="4" t="n">
         <v>43415</v>
       </c>
-      <c r="J91" s="8" t="str">
-        <f aca="false">H91</f>
-        <v>egypt</v>
+      <c r="J91" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="K91" s="10" t="str">
         <f aca="false">F91</f>
@@ -10581,7 +10519,7 @@
         <v>28581805709</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R91" s="8" t="s">
         <v>36</v>
@@ -10593,7 +10531,7 @@
         <v>37</v>
       </c>
       <c r="U91" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V91" s="6" t="n">
         <v>16193</v>
@@ -10616,27 +10554,27 @@
       </c>
       <c r="AB91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>93</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="G92" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>152</v>
@@ -10644,9 +10582,8 @@
       <c r="I92" s="4" t="n">
         <v>44449</v>
       </c>
-      <c r="J92" s="8" t="str">
-        <f aca="false">H92</f>
-        <v>india</v>
+      <c r="J92" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K92" s="8" t="str">
         <f aca="false">F92</f>
@@ -10670,7 +10607,7 @@
         <v>28735674779</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R92" s="8" t="s">
         <v>36</v>
@@ -10682,7 +10619,7 @@
         <v>305</v>
       </c>
       <c r="U92" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="V92" s="6" t="n">
         <v>19500</v>
@@ -10705,27 +10642,27 @@
       </c>
       <c r="AB92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>596</v>
-      </c>
       <c r="G93" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>152</v>
@@ -10733,9 +10670,8 @@
       <c r="I93" s="4" t="n">
         <v>44653</v>
       </c>
-      <c r="J93" s="8" t="str">
-        <f aca="false">H93</f>
-        <v>india</v>
+      <c r="J93" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K93" s="10" t="str">
         <f aca="false">F93</f>
@@ -10759,7 +10695,7 @@
         <v>28235670288</v>
       </c>
       <c r="Q93" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R93" s="8" t="s">
         <v>36</v>
@@ -10768,10 +10704,10 @@
         <v>30204</v>
       </c>
       <c r="T93" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V93" s="6" t="n">
         <v>19000</v>
@@ -10794,27 +10730,27 @@
       </c>
       <c r="AB93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>87</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="F94" s="10" t="s">
-        <v>601</v>
-      </c>
       <c r="G94" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>301</v>
@@ -10822,9 +10758,8 @@
       <c r="I94" s="4" t="n">
         <v>44465</v>
       </c>
-      <c r="J94" s="8" t="str">
-        <f aca="false">H94</f>
-        <v>Pakistan</v>
+      <c r="J94" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K94" s="10" t="str">
         <f aca="false">F94</f>
@@ -10848,7 +10783,7 @@
         <v>29058608053</v>
       </c>
       <c r="Q94" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R94" s="8" t="s">
         <v>36</v>
@@ -10857,10 +10792,10 @@
         <v>33233</v>
       </c>
       <c r="T94" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U94" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="V94" s="6" t="n">
         <v>18000</v>
@@ -10883,37 +10818,36 @@
       </c>
       <c r="AB94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>77</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="F95" s="14" t="s">
-        <v>606</v>
-      </c>
       <c r="G95" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I95" s="4" t="n">
         <v>40430</v>
       </c>
-      <c r="J95" s="8" t="str">
-        <f aca="false">H95</f>
-        <v>egypt</v>
+      <c r="J95" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="K95" s="10" t="str">
         <f aca="false">F95</f>
@@ -10936,7 +10870,7 @@
         <v>28081807053</v>
       </c>
       <c r="Q95" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R95" s="8" t="s">
         <v>36</v>
@@ -10948,7 +10882,7 @@
         <v>64</v>
       </c>
       <c r="U95" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="V95" s="6" t="n">
         <v>22675</v>
@@ -10971,21 +10905,21 @@
       </c>
       <c r="AB95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>40</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>294</v>
@@ -10999,9 +10933,8 @@
       <c r="I96" s="4" t="n">
         <v>44119</v>
       </c>
-      <c r="J96" s="8" t="str">
-        <f aca="false">H96</f>
-        <v>Tunis, Tunis</v>
+      <c r="J96" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="K96" s="8" t="str">
         <f aca="false">F96</f>
@@ -11024,7 +10957,7 @@
         <v>29178800769</v>
       </c>
       <c r="Q96" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R96" s="8" t="s">
         <v>36</v>
@@ -11036,7 +10969,7 @@
         <v>37</v>
       </c>
       <c r="U96" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V96" s="6" t="n">
         <v>2000</v>
@@ -11059,27 +10992,27 @@
       </c>
       <c r="AB96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="G97" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>301</v>
@@ -11087,9 +11020,8 @@
       <c r="I97" s="4" t="n">
         <v>44465</v>
       </c>
-      <c r="J97" s="8" t="str">
-        <f aca="false">H97</f>
-        <v>Pakistan</v>
+      <c r="J97" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K97" s="10" t="str">
         <f aca="false">F97</f>
@@ -11113,7 +11045,7 @@
         <v>27758604819</v>
       </c>
       <c r="Q97" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R97" s="8" t="s">
         <v>36</v>
@@ -11122,10 +11054,10 @@
         <v>28375</v>
       </c>
       <c r="T97" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="V97" s="6" t="n">
         <v>20000</v>
@@ -11148,37 +11080,36 @@
       </c>
       <c r="AB97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>98</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>294</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I98" s="4" t="n">
         <v>44661</v>
       </c>
-      <c r="J98" s="8" t="str">
-        <f aca="false">H98</f>
-        <v>Turkey</v>
+      <c r="J98" s="8" t="s">
+        <v>621</v>
       </c>
       <c r="K98" s="8" t="str">
         <f aca="false">F98</f>
@@ -11193,28 +11124,28 @@
         <v>Turkey</v>
       </c>
       <c r="N98" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="O98" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="O98" s="8" t="s">
-        <v>624</v>
       </c>
       <c r="P98" s="7" t="n">
         <v>27579201331</v>
       </c>
       <c r="Q98" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="R98" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="R98" s="8" t="s">
-        <v>626</v>
       </c>
       <c r="S98" s="13" t="n">
         <v>27410</v>
       </c>
       <c r="T98" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U98" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V98" s="6" t="n">
         <v>28000</v>
@@ -11237,27 +11168,27 @@
       </c>
       <c r="AB98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>92</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>630</v>
-      </c>
       <c r="G99" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>301</v>
@@ -11265,9 +11196,8 @@
       <c r="I99" s="4" t="n">
         <v>44613</v>
       </c>
-      <c r="J99" s="8" t="str">
-        <f aca="false">H99</f>
-        <v>Pakistan</v>
+      <c r="J99" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="K99" s="10" t="str">
         <f aca="false">F99</f>
@@ -11291,7 +11221,7 @@
         <v>29358606887</v>
       </c>
       <c r="Q99" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R99" s="8" t="s">
         <v>36</v>
@@ -11300,10 +11230,10 @@
         <v>34095</v>
       </c>
       <c r="T99" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U99" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V99" s="6" t="n">
         <v>20000</v>
@@ -11326,27 +11256,27 @@
       </c>
       <c r="AB99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>80</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>294</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>78</v>
@@ -11354,9 +11284,8 @@
       <c r="I100" s="4" t="n">
         <v>39873</v>
       </c>
-      <c r="J100" s="8" t="str">
-        <f aca="false">H100</f>
-        <v>India</v>
+      <c r="J100" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K100" s="8" t="str">
         <f aca="false">F100</f>
@@ -11380,7 +11309,7 @@
         <v>28435601003</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R100" s="8" t="s">
         <v>36</v>
@@ -11392,7 +11321,7 @@
         <v>64</v>
       </c>
       <c r="U100" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="V100" s="6" t="n">
         <v>4700</v>
@@ -11415,37 +11344,36 @@
       </c>
       <c r="AB100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>79</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E101" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="F101" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="F101" s="14" t="s">
-        <v>639</v>
-      </c>
       <c r="G101" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I101" s="4" t="n">
         <v>40320</v>
       </c>
-      <c r="J101" s="8" t="str">
-        <f aca="false">H101</f>
-        <v>egypt</v>
+      <c r="J101" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="K101" s="10" t="str">
         <f aca="false">F101</f>
@@ -11469,7 +11397,7 @@
         <v>28081807206</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R101" s="8" t="s">
         <v>36</v>
@@ -11481,7 +11409,7 @@
         <v>64</v>
       </c>
       <c r="U101" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="V101" s="6" t="n">
         <v>29500</v>
@@ -11545,55 +11473,57 @@
     <hyperlink ref="F57" r:id="rId37" display="haroonrasheed230@gmail.com"/>
     <hyperlink ref="Q58" r:id="rId38" location="id=4563&amp;model=documents.document" display="N013629099"/>
     <hyperlink ref="H60" r:id="rId39" location="id=182&amp;model=res.country" display="State of Palestine"/>
-    <hyperlink ref="M60" r:id="rId40" location="id=182&amp;model=res.country" display="State of Palestine"/>
-    <hyperlink ref="F62" r:id="rId41" display="malikmuhammadjawad@ymail.com"/>
-    <hyperlink ref="Q62" r:id="rId42" location="id=17444&amp;model=documents.document" display="FU8670621"/>
-    <hyperlink ref="F63" r:id="rId43" display="dheeraj907@gmail.com"/>
-    <hyperlink ref="F64" r:id="rId44" display="adutt7974@gmail.com"/>
-    <hyperlink ref="F65" r:id="rId45" display="arghya.arkm@gmail.com"/>
-    <hyperlink ref="Q65" r:id="rId46" location="id=16798&amp;model=documents.document" display="R9976769"/>
-    <hyperlink ref="F66" r:id="rId47" display="priyankbais@gmail.com"/>
-    <hyperlink ref="Q66" r:id="rId48" location="id=19414&amp;model=documents.document" display="R8564521"/>
-    <hyperlink ref="Q67" r:id="rId49" location="id=24693&amp;model=documents.document" display="Z5712251"/>
-    <hyperlink ref="Q68" r:id="rId50" location="id=27055&amp;model=documents.document" display="P5214538"/>
-    <hyperlink ref="F69" r:id="rId51" display="jaffar1aayan@gmail.com"/>
-    <hyperlink ref="Q70" r:id="rId52" location="id=26872&amp;model=documents.document" display="R9960659"/>
-    <hyperlink ref="Q71" r:id="rId53" location="id=27215&amp;model=documents.document" display="P7133597"/>
-    <hyperlink ref="F73" r:id="rId54" display="admin@madre-me.com"/>
-    <hyperlink ref="Q73" r:id="rId55" location="id=26980&amp;model=documents.document" display="R2466263"/>
-    <hyperlink ref="Q74" r:id="rId56" location="id=27894&amp;model=documents.document" display="YL1813092"/>
-    <hyperlink ref="F75" r:id="rId57" display="mudasirbashir235@gmail.com"/>
-    <hyperlink ref="Q75" r:id="rId58" location="id=27079&amp;model=documents.document" display="L1927310"/>
-    <hyperlink ref="F76" r:id="rId59" display="m.nasrallah@everteam-gs.com"/>
-    <hyperlink ref="Q76" r:id="rId60" location="id=13687&amp;model=documents.document" display="LR1867165"/>
-    <hyperlink ref="F77" r:id="rId61" display="anasrafiir@outlook.com"/>
-    <hyperlink ref="H77" r:id="rId62" location="id=100&amp;model=res.country" display="Indonesia"/>
-    <hyperlink ref="Q77" r:id="rId63" location="id=28220&amp;model=documents.document" display="X1041627"/>
-    <hyperlink ref="Q78" r:id="rId64" location="id=14410&amp;model=documents.document" display="U3677201"/>
-    <hyperlink ref="F79" r:id="rId65" display="b.atassi@hotmail.com"/>
-    <hyperlink ref="Q79" r:id="rId66" location="id=13474&amp;model=documents.document" display="https://portal.qshield.com/web#id=13474&amp;model=documents.document"/>
-    <hyperlink ref="F80" r:id="rId67" display="admin@madre-me.com"/>
-    <hyperlink ref="Q80" r:id="rId68" location="id=27052&amp;model=documents.document" display="S3501194"/>
-    <hyperlink ref="Q81" r:id="rId69" location="id=27054&amp;model=documents.document" display="T8251552"/>
-    <hyperlink ref="Q82" r:id="rId70" location="id=28706&amp;model=documents.document" display="P0254846"/>
-    <hyperlink ref="F83" r:id="rId71" display="p.alkosseifi@everteam-gs.com"/>
-    <hyperlink ref="Q83" r:id="rId72" location="id=25114&amp;model=documents.document" display="LR1760843"/>
-    <hyperlink ref="F84" r:id="rId73" display="ahmed@attivonetworks.com"/>
-    <hyperlink ref="Q84" r:id="rId74" location="id=5786&amp;model=documents.document" display="N752135"/>
-    <hyperlink ref="F86" r:id="rId75" display="mohammad.noor.alam@huawei.com"/>
-    <hyperlink ref="F87" r:id="rId76" display="Georges.richa.5@hotmail.com"/>
-    <hyperlink ref="Q87" r:id="rId77" location="id=29158&amp;model=documents.document" display="LR1835676"/>
-    <hyperlink ref="Q89" r:id="rId78" location="id=26873&amp;model=documents.document" display="R7763341"/>
-    <hyperlink ref="Q90" r:id="rId79" location="id=27333&amp;model=documents.document" display="P4607614"/>
-    <hyperlink ref="F91" r:id="rId80" display="eslam_taie1000@yahoo.com"/>
-    <hyperlink ref="Q91" r:id="rId81" location="id=14085&amp;model=documents.document" display="A27762619"/>
-    <hyperlink ref="F93" r:id="rId82" display="bipin.choudhary@gmail.com"/>
-    <hyperlink ref="F94" r:id="rId83" display="muhammad.adeel.n7@gmail.com"/>
-    <hyperlink ref="F95" r:id="rId84" display="haitham.moawad.ext@nokia.com"/>
-    <hyperlink ref="F97" r:id="rId85" display="mohsinhaqqani@gmail.com"/>
-    <hyperlink ref="Q98" r:id="rId86" location="id=28223&amp;model=documents.document" display="U24541799"/>
-    <hyperlink ref="F99" r:id="rId87" display="mianjawadhameed@gmail.com"/>
-    <hyperlink ref="F101" r:id="rId88" display="bahaaeldin.abdelkawy@alcatel-lucent.com"/>
+    <hyperlink ref="J60" r:id="rId40" location="id=182&amp;model=res.country" display="State of Palestine"/>
+    <hyperlink ref="M60" r:id="rId41" location="id=182&amp;model=res.country" display="State of Palestine"/>
+    <hyperlink ref="F62" r:id="rId42" display="malikmuhammadjawad@ymail.com"/>
+    <hyperlink ref="Q62" r:id="rId43" location="id=17444&amp;model=documents.document" display="FU8670621"/>
+    <hyperlink ref="F63" r:id="rId44" display="dheeraj907@gmail.com"/>
+    <hyperlink ref="F64" r:id="rId45" display="adutt7974@gmail.com"/>
+    <hyperlink ref="F65" r:id="rId46" display="arghya.arkm@gmail.com"/>
+    <hyperlink ref="Q65" r:id="rId47" location="id=16798&amp;model=documents.document" display="R9976769"/>
+    <hyperlink ref="F66" r:id="rId48" display="priyankbais@gmail.com"/>
+    <hyperlink ref="Q66" r:id="rId49" location="id=19414&amp;model=documents.document" display="R8564521"/>
+    <hyperlink ref="Q67" r:id="rId50" location="id=24693&amp;model=documents.document" display="Z5712251"/>
+    <hyperlink ref="Q68" r:id="rId51" location="id=27055&amp;model=documents.document" display="P5214538"/>
+    <hyperlink ref="F69" r:id="rId52" display="jaffar1aayan@gmail.com"/>
+    <hyperlink ref="Q70" r:id="rId53" location="id=26872&amp;model=documents.document" display="R9960659"/>
+    <hyperlink ref="Q71" r:id="rId54" location="id=27215&amp;model=documents.document" display="P7133597"/>
+    <hyperlink ref="F73" r:id="rId55" display="admin@madre-me.com"/>
+    <hyperlink ref="Q73" r:id="rId56" location="id=26980&amp;model=documents.document" display="R2466263"/>
+    <hyperlink ref="Q74" r:id="rId57" location="id=27894&amp;model=documents.document" display="YL1813092"/>
+    <hyperlink ref="F75" r:id="rId58" display="mudasirbashir235@gmail.com"/>
+    <hyperlink ref="Q75" r:id="rId59" location="id=27079&amp;model=documents.document" display="L1927310"/>
+    <hyperlink ref="F76" r:id="rId60" display="m.nasrallah@everteam-gs.com"/>
+    <hyperlink ref="Q76" r:id="rId61" location="id=13687&amp;model=documents.document" display="LR1867165"/>
+    <hyperlink ref="F77" r:id="rId62" display="anasrafiir@outlook.com"/>
+    <hyperlink ref="H77" r:id="rId63" location="id=100&amp;model=res.country" display="Indonesia"/>
+    <hyperlink ref="J77" r:id="rId64" location="id=100&amp;model=res.country" display="Indonesia"/>
+    <hyperlink ref="Q77" r:id="rId65" location="id=28220&amp;model=documents.document" display="X1041627"/>
+    <hyperlink ref="Q78" r:id="rId66" location="id=14410&amp;model=documents.document" display="U3677201"/>
+    <hyperlink ref="F79" r:id="rId67" display="b.atassi@hotmail.com"/>
+    <hyperlink ref="Q79" r:id="rId68" location="id=13474&amp;model=documents.document" display="https://portal.qshield.com/web#id=13474&amp;model=documents.document"/>
+    <hyperlink ref="F80" r:id="rId69" display="admin@madre-me.com"/>
+    <hyperlink ref="Q80" r:id="rId70" location="id=27052&amp;model=documents.document" display="S3501194"/>
+    <hyperlink ref="Q81" r:id="rId71" location="id=27054&amp;model=documents.document" display="T8251552"/>
+    <hyperlink ref="Q82" r:id="rId72" location="id=28706&amp;model=documents.document" display="P0254846"/>
+    <hyperlink ref="F83" r:id="rId73" display="p.alkosseifi@everteam-gs.com"/>
+    <hyperlink ref="Q83" r:id="rId74" location="id=25114&amp;model=documents.document" display="LR1760843"/>
+    <hyperlink ref="F84" r:id="rId75" display="ahmed@attivonetworks.com"/>
+    <hyperlink ref="Q84" r:id="rId76" location="id=5786&amp;model=documents.document" display="N752135"/>
+    <hyperlink ref="F86" r:id="rId77" display="mohammad.noor.alam@huawei.com"/>
+    <hyperlink ref="F87" r:id="rId78" display="Georges.richa.5@hotmail.com"/>
+    <hyperlink ref="Q87" r:id="rId79" location="id=29158&amp;model=documents.document" display="LR1835676"/>
+    <hyperlink ref="Q89" r:id="rId80" location="id=26873&amp;model=documents.document" display="R7763341"/>
+    <hyperlink ref="Q90" r:id="rId81" location="id=27333&amp;model=documents.document" display="P4607614"/>
+    <hyperlink ref="F91" r:id="rId82" display="eslam_taie1000@yahoo.com"/>
+    <hyperlink ref="Q91" r:id="rId83" location="id=14085&amp;model=documents.document" display="A27762619"/>
+    <hyperlink ref="F93" r:id="rId84" display="bipin.choudhary@gmail.com"/>
+    <hyperlink ref="F94" r:id="rId85" display="muhammad.adeel.n7@gmail.com"/>
+    <hyperlink ref="F95" r:id="rId86" display="haitham.moawad.ext@nokia.com"/>
+    <hyperlink ref="F97" r:id="rId87" display="mohsinhaqqani@gmail.com"/>
+    <hyperlink ref="Q98" r:id="rId88" location="id=28223&amp;model=documents.document" display="U24541799"/>
+    <hyperlink ref="F99" r:id="rId89" display="mianjawadhameed@gmail.com"/>
+    <hyperlink ref="F101" r:id="rId90" display="bahaaeldin.abdelkawy@alcatel-lucent.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11616,12 +11546,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -11669,7 +11599,7 @@
         <v>18</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>20</v>
@@ -11697,13 +11627,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
@@ -11757,13 +11687,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -11794,10 +11724,10 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="8"/>
       <c r="S4" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>647</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -11811,13 +11741,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -11848,10 +11778,10 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="8"/>
       <c r="S5" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -11865,13 +11795,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -11902,10 +11832,10 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="8"/>
       <c r="S6" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -11919,13 +11849,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -11956,10 +11886,10 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="8"/>
       <c r="S7" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -11973,13 +11903,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -12010,10 +11940,10 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="8"/>
       <c r="S8" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -12027,13 +11957,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -12064,7 +11994,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="8"/>
       <c r="S9" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T9" s="6" t="n">
         <v>3800</v>
@@ -12088,13 +12018,13 @@
         <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -12125,7 +12055,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="8"/>
       <c r="S10" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="T10" s="6" t="n">
         <v>55166</v>
@@ -12151,13 +12081,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -12188,7 +12118,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="8"/>
       <c r="S11" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T11" s="6" t="n">
         <v>62023</v>
@@ -12214,13 +12144,13 @@
         <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -12251,7 +12181,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="8"/>
       <c r="S12" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="T12" s="6" t="n">
         <v>14065</v>
@@ -12277,13 +12207,13 @@
         <v>102</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
@@ -12314,7 +12244,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="8"/>
       <c r="S13" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="T13" s="6" t="n">
         <v>56667</v>
@@ -12340,13 +12270,13 @@
         <v>103</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -12377,7 +12307,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="8"/>
       <c r="S14" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="T14" s="6" t="n">
         <v>20020</v>
@@ -12403,13 +12333,13 @@
         <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -12440,7 +12370,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="8"/>
       <c r="S15" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="T15" s="6" t="n">
         <v>47500</v>
@@ -12466,13 +12396,13 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
@@ -12503,10 +12433,10 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="8"/>
       <c r="S16" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -12520,13 +12450,13 @@
         <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
@@ -12557,7 +12487,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="8"/>
       <c r="S17" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T17" s="6" t="n">
         <v>11600</v>
@@ -12583,13 +12513,13 @@
         <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -12620,7 +12550,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="8"/>
       <c r="S18" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T18" s="6" t="n">
         <v>2000</v>
@@ -12629,7 +12559,7 @@
         <v>2000</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="6" t="s">
@@ -12643,13 +12573,13 @@
         <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
@@ -12680,7 +12610,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="8"/>
       <c r="S19" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T19" s="6" t="n">
         <v>12000</v>
@@ -12706,13 +12636,13 @@
         <v>109</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -12743,7 +12673,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="8"/>
       <c r="S20" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T20" s="6" t="n">
         <v>20000</v>
@@ -12769,13 +12699,13 @@
         <v>110</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="8"/>
@@ -12806,7 +12736,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="8"/>
       <c r="S21" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T21" s="6" t="n">
         <v>15000</v>
@@ -12832,13 +12762,13 @@
         <v>111</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
@@ -12869,7 +12799,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="8"/>
       <c r="S22" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="T22" s="6" t="n">
         <v>4000</v>
@@ -12895,13 +12825,13 @@
         <v>112</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
@@ -12932,7 +12862,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="8"/>
       <c r="S23" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="T23" s="6" t="n">
         <v>4000</v>
@@ -12958,13 +12888,13 @@
         <v>113</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
@@ -12995,7 +12925,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="8"/>
       <c r="S24" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T24" s="6" t="n">
         <v>30000</v>
@@ -13021,13 +12951,13 @@
         <v>114</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
@@ -13058,7 +12988,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="8"/>
       <c r="S25" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T25" s="6" t="n">
         <v>10000</v>
@@ -13084,13 +13014,13 @@
         <v>115</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -13121,7 +13051,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="8"/>
       <c r="S26" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T26" s="6" t="n">
         <v>4000</v>
@@ -13147,13 +13077,13 @@
         <v>145</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
@@ -13184,7 +13114,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="8"/>
       <c r="S27" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T27" s="6" t="n">
         <v>21840</v>
@@ -13210,13 +13140,13 @@
         <v>146</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
@@ -13247,7 +13177,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="8"/>
       <c r="S28" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T28" s="6" t="n">
         <v>8000</v>
@@ -13273,13 +13203,13 @@
         <v>147</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
@@ -13310,7 +13240,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="8"/>
       <c r="S29" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T29" s="6" t="n">
         <v>1798</v>
@@ -13336,13 +13266,13 @@
         <v>148</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
@@ -13373,7 +13303,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="8"/>
       <c r="S30" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T30" s="6" t="n">
         <v>1800</v>
@@ -13399,13 +13329,13 @@
         <v>149</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
@@ -13436,7 +13366,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="8"/>
       <c r="S31" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T31" s="6" t="n">
         <v>21000</v>
@@ -13462,13 +13392,13 @@
         <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
@@ -13499,7 +13429,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="8"/>
       <c r="S32" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T32" s="6" t="n">
         <v>24548</v>
@@ -13525,13 +13455,13 @@
         <v>151</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
@@ -13562,7 +13492,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="8"/>
       <c r="S33" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T33" s="6" t="n">
         <v>12500</v>
@@ -13588,13 +13518,13 @@
         <v>152</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
@@ -13625,7 +13555,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="8"/>
       <c r="S34" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T34" s="6" t="n">
         <v>6950</v>
@@ -13651,13 +13581,13 @@
         <v>153</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
@@ -13688,7 +13618,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="8"/>
       <c r="S35" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T35" s="6" t="n">
         <v>3000</v>
@@ -13714,13 +13644,13 @@
         <v>154</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
@@ -13751,7 +13681,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="8"/>
       <c r="S36" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T36" s="6" t="n">
         <v>2200</v>
@@ -13777,13 +13707,13 @@
         <v>155</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
@@ -13814,7 +13744,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="8"/>
       <c r="S37" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="T37" s="6" t="n">
         <v>8025</v>
@@ -13840,13 +13770,13 @@
         <v>156</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
@@ -13877,7 +13807,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="8"/>
       <c r="S38" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T38" s="6" t="n">
         <v>4000</v>
@@ -13903,13 +13833,13 @@
         <v>157</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
@@ -13940,7 +13870,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="8"/>
       <c r="S39" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="T39" s="6" t="n">
         <v>2200</v>
@@ -13966,13 +13896,13 @@
         <v>158</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
@@ -14003,7 +13933,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="8"/>
       <c r="S40" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="T40" s="6" t="n">
         <v>10675</v>
@@ -14029,13 +13959,13 @@
         <v>159</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
@@ -14066,7 +13996,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="8"/>
       <c r="S41" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T41" s="6" t="n">
         <v>8745</v>
@@ -14092,13 +14022,13 @@
         <v>160</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
@@ -14129,7 +14059,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="8"/>
       <c r="S42" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="T42" s="6" t="n">
         <v>4000</v>
@@ -14155,13 +14085,13 @@
         <v>161</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
@@ -14192,7 +14122,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="8"/>
       <c r="S43" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T43" s="6" t="n">
         <v>2700</v>
@@ -14218,13 +14148,13 @@
         <v>162</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
@@ -14255,7 +14185,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="8"/>
       <c r="S44" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T44" s="6" t="n">
         <v>2000</v>
@@ -14281,13 +14211,13 @@
         <v>163</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
@@ -14318,7 +14248,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="8"/>
       <c r="S45" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T45" s="6" t="n">
         <v>3500</v>
@@ -14344,13 +14274,13 @@
         <v>164</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
@@ -14381,7 +14311,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="8"/>
       <c r="S46" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T46" s="6" t="n">
         <v>2400</v>
@@ -14407,13 +14337,13 @@
         <v>165</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
@@ -14444,7 +14374,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="8"/>
       <c r="S47" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="T47" s="6" t="n">
         <v>2800</v>
@@ -14470,13 +14400,13 @@
         <v>166</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
@@ -14507,7 +14437,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="8"/>
       <c r="S48" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="T48" s="6" t="n">
         <v>3200</v>
@@ -14533,13 +14463,13 @@
         <v>167</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="8"/>
@@ -14570,7 +14500,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="8"/>
       <c r="S49" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T49" s="6" t="n">
         <v>5500</v>
@@ -14596,13 +14526,13 @@
         <v>168</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="8"/>
@@ -14633,7 +14563,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="8"/>
       <c r="S50" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T50" s="6" t="n">
         <v>4300</v>
@@ -14659,13 +14589,13 @@
         <v>169</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
@@ -14696,7 +14626,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="8"/>
       <c r="S51" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T51" s="6" t="n">
         <v>30098.83</v>
@@ -14722,13 +14652,13 @@
         <v>170</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="8"/>
@@ -14759,7 +14689,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="8"/>
       <c r="S52" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="T52" s="6" t="n">
         <v>50930</v>
@@ -14785,13 +14715,13 @@
         <v>171</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
@@ -14822,7 +14752,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="8"/>
       <c r="S53" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T53" s="6" t="n">
         <v>54227.5</v>
@@ -14838,7 +14768,7 @@
         <v>2812.5</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -14848,13 +14778,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
@@ -14885,7 +14815,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="8"/>
       <c r="S54" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T54" s="6" t="n">
         <v>59926.5</v>
@@ -14911,13 +14841,13 @@
         <v>173</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
@@ -14948,7 +14878,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="8"/>
       <c r="S55" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T55" s="6" t="n">
         <v>66631</v>
@@ -14974,13 +14904,13 @@
         <v>174</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
@@ -15011,7 +14941,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="8"/>
       <c r="S56" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T56" s="6" t="n">
         <v>47190.5</v>
@@ -15037,13 +14967,13 @@
         <v>175</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
@@ -15074,7 +15004,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="8"/>
       <c r="S57" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T57" s="6" t="n">
         <v>4500</v>
@@ -15100,13 +15030,13 @@
         <v>176</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
@@ -15137,7 +15067,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="8"/>
       <c r="S58" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="T58" s="6" t="n">
         <v>5000</v>
@@ -15163,13 +15093,13 @@
         <v>177</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
@@ -15200,7 +15130,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="8"/>
       <c r="S59" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="T59" s="6" t="n">
         <v>26500</v>
@@ -15226,13 +15156,13 @@
         <v>178</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
@@ -15263,7 +15193,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="8"/>
       <c r="S60" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="T60" s="6" t="n">
         <v>27000</v>
@@ -15289,13 +15219,13 @@
         <v>179</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="8"/>
@@ -15326,7 +15256,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="8"/>
       <c r="S61" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T61" s="6" t="n">
         <v>23500</v>
@@ -15352,13 +15282,13 @@
         <v>180</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
@@ -15389,7 +15319,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="8"/>
       <c r="S62" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T62" s="6" t="n">
         <v>18250</v>
@@ -15415,13 +15345,13 @@
         <v>181</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="8"/>
@@ -15452,7 +15382,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="8"/>
       <c r="S63" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="T63" s="6" t="n">
         <v>19000</v>
@@ -15478,13 +15408,13 @@
         <v>182</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
@@ -15515,7 +15445,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="8"/>
       <c r="S64" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T64" s="6" t="n">
         <v>16000</v>
